--- a/Code/Results/Cases/Case_1_226/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_226/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.71230435497708</v>
+        <v>16.15625130904473</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.76198834254536</v>
+        <v>5.227209632459942</v>
       </c>
       <c r="E2">
-        <v>11.97605981441841</v>
+        <v>18.47924742512029</v>
       </c>
       <c r="F2">
-        <v>19.95998302242318</v>
+        <v>25.93875600156668</v>
       </c>
       <c r="G2">
-        <v>2.089533449463739</v>
+        <v>3.641485923773893</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.15836266276488</v>
+        <v>10.15479932006108</v>
       </c>
       <c r="L2">
-        <v>6.811952854013202</v>
+        <v>8.318050084480998</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.10637148911995</v>
+        <v>23.20648075587856</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.05965280676493</v>
+        <v>16.04732137356886</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.646262833242609</v>
+        <v>5.185903575125639</v>
       </c>
       <c r="E3">
-        <v>12.14295983788491</v>
+        <v>18.55333116928583</v>
       </c>
       <c r="F3">
-        <v>19.54474151104293</v>
+        <v>25.94978019416371</v>
       </c>
       <c r="G3">
-        <v>2.094707253318687</v>
+        <v>3.64343243343379</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.50138075284524</v>
+        <v>9.842001205313155</v>
       </c>
       <c r="L3">
-        <v>6.422906051529585</v>
+        <v>8.272406162376789</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.01002490447813</v>
+        <v>23.26565112086701</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.64872789868486</v>
+        <v>15.98340499647301</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.573322521700007</v>
+        <v>5.160001923818734</v>
       </c>
       <c r="E4">
-        <v>12.25147370366589</v>
+        <v>18.60168733642252</v>
       </c>
       <c r="F4">
-        <v>19.30451185861426</v>
+        <v>25.96371436656088</v>
       </c>
       <c r="G4">
-        <v>2.097982855621809</v>
+        <v>3.644691410686243</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.08072874386843</v>
+        <v>9.643019092030556</v>
       </c>
       <c r="L4">
-        <v>6.172132911019344</v>
+        <v>8.245675200544103</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.96531213925596</v>
+        <v>23.30735015492503</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.47893653244182</v>
+        <v>15.95812820486309</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.543148578391559</v>
+        <v>5.149315180079005</v>
       </c>
       <c r="E5">
-        <v>12.29718491662592</v>
+        <v>18.62211498678112</v>
       </c>
       <c r="F5">
-        <v>19.21035698718581</v>
+        <v>25.97119250243004</v>
       </c>
       <c r="G5">
-        <v>2.09934314591446</v>
+        <v>3.645220550912595</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.90508525890216</v>
+        <v>9.56026665272573</v>
       </c>
       <c r="L5">
-        <v>6.066974269490764</v>
+        <v>8.235116209079349</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.95060909159207</v>
+        <v>23.32568930681319</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.45060903513648</v>
+        <v>15.95397816187143</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.538111754236122</v>
+        <v>5.147532825084801</v>
       </c>
       <c r="E6">
-        <v>12.30486453748889</v>
+        <v>18.62555062139207</v>
       </c>
       <c r="F6">
-        <v>19.19494937397543</v>
+        <v>25.97254286966011</v>
       </c>
       <c r="G6">
-        <v>2.099570575463623</v>
+        <v>3.645309387938821</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.87566849672334</v>
+        <v>9.546427411653207</v>
       </c>
       <c r="L6">
-        <v>6.049334509707941</v>
+        <v>8.233383315987604</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.94837666365018</v>
+        <v>23.32881572681916</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.64644716591359</v>
+        <v>15.98306095833745</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.572917375552191</v>
+        <v>5.159858326150003</v>
       </c>
       <c r="E7">
-        <v>12.25208417808052</v>
+        <v>18.60195990591186</v>
       </c>
       <c r="F7">
-        <v>19.30322686871286</v>
+        <v>25.96380793518942</v>
       </c>
       <c r="G7">
-        <v>2.098001097133667</v>
+        <v>3.644698481613583</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.07837688844903</v>
+        <v>9.64190970312084</v>
       </c>
       <c r="L7">
-        <v>6.170726676093495</v>
+        <v>8.245531434598806</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.96509976110119</v>
+        <v>23.30759203611693</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.48951162284638</v>
+        <v>16.11809096645482</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.722490942207007</v>
+        <v>5.213081714077939</v>
       </c>
       <c r="E8">
-        <v>12.03233697083057</v>
+        <v>18.5041966491363</v>
       </c>
       <c r="F8">
-        <v>19.81377624470705</v>
+        <v>25.9410691651007</v>
       </c>
       <c r="G8">
-        <v>2.091297224452973</v>
+        <v>3.642143866546568</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.93548113060228</v>
+        <v>10.04842626551504</v>
       </c>
       <c r="L8">
-        <v>6.680290746467646</v>
+        <v>8.302048636883283</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.07008637006869</v>
+        <v>23.22576654840323</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.05361147580743</v>
+        <v>16.40533534314651</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.9999058485512</v>
+        <v>5.312996639051848</v>
       </c>
       <c r="E9">
-        <v>11.65066844311938</v>
+        <v>18.33520552743734</v>
       </c>
       <c r="F9">
-        <v>20.92970465769601</v>
+        <v>25.95336996646668</v>
       </c>
       <c r="G9">
-        <v>2.078906985078582</v>
+        <v>3.63763828782224</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.47526858180316</v>
+        <v>10.78772965064303</v>
       </c>
       <c r="L9">
-        <v>7.58452161945454</v>
+        <v>8.422754870550813</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.3953540843428</v>
+        <v>23.10804429214461</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.13957338670455</v>
+        <v>16.6285276361887</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.192896363051461</v>
+        <v>5.383459509149121</v>
       </c>
       <c r="E10">
-        <v>11.40240489308773</v>
+        <v>18.2248475831291</v>
       </c>
       <c r="F10">
-        <v>21.81621980948126</v>
+        <v>25.99707228999403</v>
       </c>
       <c r="G10">
-        <v>2.070222805244333</v>
+        <v>3.634632066691105</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.51656702917147</v>
+        <v>11.2921466241652</v>
       </c>
       <c r="L10">
-        <v>8.190657637390713</v>
+        <v>8.516902096493212</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.71315041397625</v>
+        <v>23.04778840345215</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.61858583368624</v>
+        <v>16.73235870765641</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.278139189190179</v>
+        <v>5.414828367107423</v>
       </c>
       <c r="E11">
-        <v>11.29699092465726</v>
+        <v>18.17762866547568</v>
       </c>
       <c r="F11">
-        <v>22.23323045983708</v>
+        <v>26.02445204789939</v>
       </c>
       <c r="G11">
-        <v>2.066353209535431</v>
+        <v>3.633329788045239</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.97022055070286</v>
+        <v>11.51259757925401</v>
       </c>
       <c r="L11">
-        <v>8.453840067160417</v>
+        <v>8.560792990475118</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.87598763824797</v>
+        <v>23.02610580495455</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.79774227202143</v>
+        <v>16.77197767542121</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.310037201944481</v>
+        <v>5.426604504094419</v>
       </c>
       <c r="E12">
-        <v>11.25820780465319</v>
+        <v>18.1601763832777</v>
       </c>
       <c r="F12">
-        <v>22.39305389311411</v>
+        <v>26.03589391183795</v>
       </c>
       <c r="G12">
-        <v>2.064898653714478</v>
+        <v>3.632845982139759</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.13909968167806</v>
+        <v>11.5947376582873</v>
       </c>
       <c r="L12">
-        <v>8.551707676277411</v>
+        <v>8.577555142323471</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.94036146155386</v>
+        <v>23.01872100448346</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.75925816198786</v>
+        <v>16.76343214864302</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.303184585338144</v>
+        <v>5.424072927771715</v>
       </c>
       <c r="E13">
-        <v>11.26650905895917</v>
+        <v>18.16391599502251</v>
       </c>
       <c r="F13">
-        <v>22.35854903490384</v>
+        <v>26.03338203414908</v>
       </c>
       <c r="G13">
-        <v>2.065211453298977</v>
+        <v>3.632949763790772</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.10285826597532</v>
+        <v>11.5771075635484</v>
       </c>
       <c r="L13">
-        <v>8.530709693354039</v>
+        <v>8.573938995113279</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.92637556698996</v>
+        <v>23.02027468807912</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.63337031204003</v>
+        <v>16.73561233869989</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.280771185117626</v>
+        <v>5.415799275558616</v>
       </c>
       <c r="E14">
-        <v>11.29377714368727</v>
+        <v>18.17618427089189</v>
       </c>
       <c r="F14">
-        <v>22.24634128351913</v>
+        <v>26.02537188863395</v>
       </c>
       <c r="G14">
-        <v>2.066233331485768</v>
+        <v>3.633289798144781</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.98417276999485</v>
+        <v>11.51938238129792</v>
       </c>
       <c r="L14">
-        <v>8.461927566317248</v>
+        <v>8.56216924945605</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.88122892199705</v>
+        <v>23.02548168855856</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.55596731707415</v>
+        <v>16.71861011535545</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.266992221138824</v>
+        <v>5.410717948205782</v>
       </c>
       <c r="E15">
-        <v>11.31062910601887</v>
+        <v>18.18375473203263</v>
       </c>
       <c r="F15">
-        <v>22.17785781331463</v>
+        <v>26.02060511676674</v>
       </c>
       <c r="G15">
-        <v>2.066860638396263</v>
+        <v>3.633499293813136</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.91109492950951</v>
+        <v>11.48384832260759</v>
       </c>
       <c r="L15">
-        <v>8.419563320144439</v>
+        <v>8.554978047366161</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.8539307227911</v>
+        <v>23.0287787474607</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.107959798899</v>
+        <v>16.62178572787007</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.187272919998087</v>
+        <v>5.381395346579788</v>
       </c>
       <c r="E16">
-        <v>11.40944972142756</v>
+        <v>18.22799344023202</v>
       </c>
       <c r="F16">
-        <v>21.7892378868379</v>
+        <v>25.99543349548475</v>
       </c>
       <c r="G16">
-        <v>2.07047724821863</v>
+        <v>3.634718483008874</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.48651380030559</v>
+        <v>11.27755441868328</v>
       </c>
       <c r="L16">
-        <v>8.173206312194861</v>
+        <v>8.514054157146736</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.70288354738596</v>
+        <v>23.04932087523303</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.82921765597513</v>
+        <v>16.56295470983273</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.137703493610558</v>
+        <v>5.363228506996314</v>
       </c>
       <c r="E17">
-        <v>11.47203558931046</v>
+        <v>18.25589621267972</v>
       </c>
       <c r="F17">
-        <v>21.55430174561866</v>
+        <v>25.98190937381387</v>
       </c>
       <c r="G17">
-        <v>2.072716046699455</v>
+        <v>3.635483099200191</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.22089081654472</v>
+        <v>11.14865878305282</v>
       </c>
       <c r="L17">
-        <v>8.018865829559777</v>
+        <v>8.489212991767955</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.61496184761153</v>
+        <v>23.06339160907891</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.66748418638187</v>
+        <v>16.52933497726494</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.10895327804336</v>
+        <v>5.352715178344789</v>
       </c>
       <c r="E18">
-        <v>11.50873783863213</v>
+        <v>18.27222599680876</v>
       </c>
       <c r="F18">
-        <v>21.42046866151612</v>
+        <v>25.97483688971976</v>
       </c>
       <c r="G18">
-        <v>2.074011411746696</v>
+        <v>3.635929032149596</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.06622625640738</v>
+        <v>11.07367556794317</v>
       </c>
       <c r="L18">
-        <v>7.928910849943689</v>
+        <v>8.475025737706892</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.56610668072344</v>
+        <v>23.07202376730125</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.61248487954766</v>
+        <v>16.5179903251545</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.099178353036036</v>
+        <v>5.349144637153873</v>
       </c>
       <c r="E19">
-        <v>11.5212840671846</v>
+        <v>18.27780323324999</v>
       </c>
       <c r="F19">
-        <v>21.37537969756086</v>
+        <v>25.97256368552538</v>
       </c>
       <c r="G19">
-        <v>2.07445134208276</v>
+        <v>3.636081074377713</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.0135367580375</v>
+        <v>11.04814369579103</v>
       </c>
       <c r="L19">
-        <v>7.898250296854704</v>
+        <v>8.470239815194208</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.54985707790099</v>
+        <v>23.07503897548288</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.85903663136232</v>
+        <v>16.56919499574627</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.143005113324222</v>
+        <v>5.365169076654539</v>
       </c>
       <c r="E20">
-        <v>11.46529993628244</v>
+        <v>18.25289685212343</v>
       </c>
       <c r="F20">
-        <v>21.57917745189111</v>
+        <v>25.9832759768803</v>
       </c>
       <c r="G20">
-        <v>2.072476935242949</v>
+        <v>3.635401068757151</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.24936219436688</v>
+        <v>11.16246782285627</v>
       </c>
       <c r="L20">
-        <v>8.035417947308982</v>
+        <v>8.4918470318626</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.62414313465544</v>
+        <v>23.061837949085</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.67040780739545</v>
+        <v>16.74377578221727</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.287365011021902</v>
+        <v>5.418232263375359</v>
       </c>
       <c r="E21">
-        <v>11.28573659271292</v>
+        <v>18.17256915562367</v>
       </c>
       <c r="F21">
-        <v>22.27924804671371</v>
+        <v>26.02769556476503</v>
       </c>
       <c r="G21">
-        <v>2.065932895731992</v>
+        <v>3.633189668729798</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.01911270801477</v>
+        <v>11.53637435759756</v>
       </c>
       <c r="L21">
-        <v>8.482179118390919</v>
+        <v>8.565622555886614</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.89441537445822</v>
+        <v>23.02392983472748</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.18763570919105</v>
+        <v>16.85961103072511</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.379482615152726</v>
+        <v>5.452312453420963</v>
       </c>
       <c r="E22">
-        <v>11.17502551896671</v>
+        <v>18.1225677475933</v>
       </c>
       <c r="F22">
-        <v>22.74789622358387</v>
+        <v>26.06298188895318</v>
       </c>
       <c r="G22">
-        <v>2.061718359495066</v>
+        <v>3.631798803077711</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.50522487672633</v>
+        <v>11.77291695718627</v>
       </c>
       <c r="L22">
-        <v>8.763715638682552</v>
+        <v>8.614659269181166</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.08689009727989</v>
+        <v>23.00396962744428</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.9127960401763</v>
+        <v>16.79763879060515</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.330526246515825</v>
+        <v>5.434179402861633</v>
       </c>
       <c r="E23">
-        <v>11.2334870154037</v>
+        <v>18.14902609489137</v>
       </c>
       <c r="F23">
-        <v>22.49677251628348</v>
+        <v>26.04357839201204</v>
       </c>
       <c r="G23">
-        <v>2.063962327579505</v>
+        <v>3.632536170801711</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.24733614902718</v>
+        <v>11.64739914804217</v>
       </c>
       <c r="L23">
-        <v>8.614405443039669</v>
+        <v>8.588416166997261</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.9826874886968</v>
+        <v>23.0141815502957</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.84556007905666</v>
+        <v>16.5663731278452</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.140609035105999</v>
+        <v>5.364291959624675</v>
       </c>
       <c r="E24">
-        <v>11.46834288383003</v>
+        <v>18.25425196555951</v>
       </c>
       <c r="F24">
-        <v>21.5679272939087</v>
+        <v>25.98265594637</v>
       </c>
       <c r="G24">
-        <v>2.072585011771525</v>
+        <v>3.635438134953037</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.2364963696082</v>
+        <v>11.15622749172597</v>
       </c>
       <c r="L24">
-        <v>8.027938543725412</v>
+        <v>8.490655887873677</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.61998701039037</v>
+        <v>23.06253866841863</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.64104919340702</v>
+        <v>16.32537919972787</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.926683976250587</v>
+        <v>5.286467826032693</v>
       </c>
       <c r="E25">
-        <v>11.74844315319645</v>
+        <v>18.37849502074108</v>
       </c>
       <c r="F25">
-        <v>20.6158542241912</v>
+        <v>25.94394868693312</v>
       </c>
       <c r="G25">
-        <v>2.082182121076136</v>
+        <v>3.638803543653114</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.07429128677125</v>
+        <v>10.59430730127924</v>
       </c>
       <c r="L25">
-        <v>7.350130035399588</v>
+        <v>8.389099304551898</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.293928272528</v>
+        <v>23.13529611861646</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_226/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_226/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.15625130904473</v>
+        <v>13.71230435497703</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.227209632459942</v>
+        <v>4.761988342545495</v>
       </c>
       <c r="E2">
-        <v>18.47924742512029</v>
+        <v>11.97605981441835</v>
       </c>
       <c r="F2">
-        <v>25.93875600156668</v>
+        <v>19.95998302242299</v>
       </c>
       <c r="G2">
-        <v>3.641485923773893</v>
+        <v>2.089533449463604</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.15479932006108</v>
+        <v>14.15836266276494</v>
       </c>
       <c r="L2">
-        <v>8.318050084480998</v>
+        <v>6.811952854013254</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.20648075587856</v>
+        <v>16.10637148911977</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.04732137356886</v>
+        <v>13.05965280676493</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.185903575125639</v>
+        <v>4.646262833242861</v>
       </c>
       <c r="E3">
-        <v>18.55333116928583</v>
+        <v>12.14295983788472</v>
       </c>
       <c r="F3">
-        <v>25.94978019416371</v>
+        <v>19.54474151104291</v>
       </c>
       <c r="G3">
-        <v>3.64343243343379</v>
+        <v>2.09470725331842</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.842001205313155</v>
+        <v>13.50138075284519</v>
       </c>
       <c r="L3">
-        <v>8.272406162376789</v>
+        <v>6.422906051529607</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.26565112086701</v>
+        <v>16.01002490447819</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.98340499647301</v>
+        <v>12.64872789868484</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.160001923818734</v>
+        <v>4.573322521700018</v>
       </c>
       <c r="E4">
-        <v>18.60168733642252</v>
+        <v>12.25147370366595</v>
       </c>
       <c r="F4">
-        <v>25.96371436656088</v>
+        <v>19.30451185861419</v>
       </c>
       <c r="G4">
-        <v>3.644691410686243</v>
+        <v>2.097982855621811</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.643019092030556</v>
+        <v>13.08072874386845</v>
       </c>
       <c r="L4">
-        <v>8.245675200544103</v>
+        <v>6.172132911019363</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.30735015492503</v>
+        <v>15.96531213925586</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.95812820486309</v>
+        <v>12.47893653244178</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.149315180079005</v>
+        <v>4.543148578391683</v>
       </c>
       <c r="E5">
-        <v>18.62211498678112</v>
+        <v>12.29718491662611</v>
       </c>
       <c r="F5">
-        <v>25.97119250243004</v>
+        <v>19.21035698718558</v>
       </c>
       <c r="G5">
-        <v>3.645220550912595</v>
+        <v>2.099343145914595</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.56026665272573</v>
+        <v>12.90508525890227</v>
       </c>
       <c r="L5">
-        <v>8.235116209079349</v>
+        <v>6.066974269490761</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.32568930681319</v>
+        <v>15.95060909159189</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.95397816187143</v>
+        <v>12.45060903513646</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.147532825084801</v>
+        <v>4.538111754236308</v>
       </c>
       <c r="E6">
-        <v>18.62555062139207</v>
+        <v>12.30486453748894</v>
       </c>
       <c r="F6">
-        <v>25.97254286966011</v>
+        <v>19.19494937397522</v>
       </c>
       <c r="G6">
-        <v>3.645309387938821</v>
+        <v>2.09957057546349</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.546427411653207</v>
+        <v>12.87566849672343</v>
       </c>
       <c r="L6">
-        <v>8.233383315987604</v>
+        <v>6.049334509707922</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.32881572681916</v>
+        <v>15.94837666365</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.98306095833745</v>
+        <v>12.64644716591351</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.159858326150003</v>
+        <v>4.57291737555205</v>
       </c>
       <c r="E7">
-        <v>18.60195990591186</v>
+        <v>12.25208417808058</v>
       </c>
       <c r="F7">
-        <v>25.96380793518942</v>
+        <v>19.30322686871272</v>
       </c>
       <c r="G7">
-        <v>3.644698481613583</v>
+        <v>2.098001097134202</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.64190970312084</v>
+        <v>13.07837688844908</v>
       </c>
       <c r="L7">
-        <v>8.245531434598806</v>
+        <v>6.170726676093512</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.30759203611693</v>
+        <v>15.96509976110107</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.11809096645482</v>
+        <v>13.48951162284639</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.213081714077939</v>
+        <v>4.722490942206945</v>
       </c>
       <c r="E8">
-        <v>18.5041966491363</v>
+        <v>12.0323369708307</v>
       </c>
       <c r="F8">
-        <v>25.9410691651007</v>
+        <v>19.81377624470692</v>
       </c>
       <c r="G8">
-        <v>3.642143866546568</v>
+        <v>2.091297224453241</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.04842626551504</v>
+        <v>13.93548113060237</v>
       </c>
       <c r="L8">
-        <v>8.302048636883283</v>
+        <v>6.680290746467726</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.22576654840323</v>
+        <v>16.07008637006852</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.40533534314651</v>
+        <v>15.0536114758074</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.312996639051848</v>
+        <v>4.999905848551137</v>
       </c>
       <c r="E9">
-        <v>18.33520552743734</v>
+        <v>11.65066844311937</v>
       </c>
       <c r="F9">
-        <v>25.95336996646668</v>
+        <v>20.92970465769595</v>
       </c>
       <c r="G9">
-        <v>3.63763828782224</v>
+        <v>2.078906985078717</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.78772965064303</v>
+        <v>15.47526858180319</v>
       </c>
       <c r="L9">
-        <v>8.422754870550813</v>
+        <v>7.584521619454534</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.10804429214461</v>
+        <v>16.39535408434273</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.6285276361887</v>
+        <v>16.13957338670452</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.383459509149121</v>
+        <v>5.192896363051467</v>
       </c>
       <c r="E10">
-        <v>18.2248475831291</v>
+        <v>11.40240489308778</v>
       </c>
       <c r="F10">
-        <v>25.99707228999403</v>
+        <v>21.81621980948116</v>
       </c>
       <c r="G10">
-        <v>3.634632066691105</v>
+        <v>2.070222805244601</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.2921466241652</v>
+        <v>16.51656702917149</v>
       </c>
       <c r="L10">
-        <v>8.516902096493212</v>
+        <v>8.190657637390682</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.04778840345215</v>
+        <v>16.71315041397611</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.73235870765641</v>
+        <v>16.61858583368623</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.414828367107423</v>
+        <v>5.278139189190179</v>
       </c>
       <c r="E11">
-        <v>18.17762866547568</v>
+        <v>11.29699092465737</v>
       </c>
       <c r="F11">
-        <v>26.02445204789939</v>
+        <v>22.23323045983706</v>
       </c>
       <c r="G11">
-        <v>3.633329788045239</v>
+        <v>2.066353209535431</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.51259757925401</v>
+        <v>16.97022055070292</v>
       </c>
       <c r="L11">
-        <v>8.560792990475118</v>
+        <v>8.453840067160417</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.02610580495455</v>
+        <v>16.87598763824793</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.77197767542121</v>
+        <v>16.79774227202145</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.426604504094419</v>
+        <v>5.310037201944504</v>
       </c>
       <c r="E12">
-        <v>18.1601763832777</v>
+        <v>11.25820780465331</v>
       </c>
       <c r="F12">
-        <v>26.03589391183795</v>
+        <v>22.39305389311409</v>
       </c>
       <c r="G12">
-        <v>3.632845982139759</v>
+        <v>2.064898653714613</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.5947376582873</v>
+        <v>17.13909968167809</v>
       </c>
       <c r="L12">
-        <v>8.577555142323471</v>
+        <v>8.551707676277378</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.01872100448346</v>
+        <v>16.94036146155381</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.76343214864302</v>
+        <v>16.75925816198783</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.424072927771715</v>
+        <v>5.303184585338007</v>
       </c>
       <c r="E13">
-        <v>18.16391599502251</v>
+        <v>11.26650905895942</v>
       </c>
       <c r="F13">
-        <v>26.03338203414908</v>
+        <v>22.35854903490385</v>
       </c>
       <c r="G13">
-        <v>3.632949763790772</v>
+        <v>2.065211453298978</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.5771075635484</v>
+        <v>17.1028582659754</v>
       </c>
       <c r="L13">
-        <v>8.573938995113279</v>
+        <v>8.530709693354019</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.02027468807912</v>
+        <v>16.92637556698994</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.73561233869989</v>
+        <v>16.63337031204</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.415799275558616</v>
+        <v>5.280771185117556</v>
       </c>
       <c r="E14">
-        <v>18.17618427089189</v>
+        <v>11.2937771436874</v>
       </c>
       <c r="F14">
-        <v>26.02537188863395</v>
+        <v>22.24634128351904</v>
       </c>
       <c r="G14">
-        <v>3.633289798144781</v>
+        <v>2.066233331486031</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.51938238129792</v>
+        <v>16.98417276999493</v>
       </c>
       <c r="L14">
-        <v>8.56216924945605</v>
+        <v>8.461927566317208</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.02548168855856</v>
+        <v>16.88122892199693</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.71861011535545</v>
+        <v>16.55596731707417</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.410717948205782</v>
+        <v>5.26699222113883</v>
       </c>
       <c r="E15">
-        <v>18.18375473203263</v>
+        <v>11.31062910601911</v>
       </c>
       <c r="F15">
-        <v>26.02060511676674</v>
+        <v>22.17785781331449</v>
       </c>
       <c r="G15">
-        <v>3.633499293813136</v>
+        <v>2.066860638395863</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.48384832260759</v>
+        <v>16.91109492950959</v>
       </c>
       <c r="L15">
-        <v>8.554978047366161</v>
+        <v>8.419563320144398</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.0287787474607</v>
+        <v>16.85393072279098</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.62178572787007</v>
+        <v>16.10795979889898</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.381395346579788</v>
+        <v>5.187272919998064</v>
       </c>
       <c r="E16">
-        <v>18.22799344023202</v>
+        <v>11.40944972142763</v>
       </c>
       <c r="F16">
-        <v>25.99543349548475</v>
+        <v>21.78923788683787</v>
       </c>
       <c r="G16">
-        <v>3.634718483008874</v>
+        <v>2.070477248218765</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.27755441868328</v>
+        <v>16.48651380030563</v>
       </c>
       <c r="L16">
-        <v>8.514054157146736</v>
+        <v>8.173206312194866</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.04932087523303</v>
+        <v>16.70288354738591</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.56295470983273</v>
+        <v>15.82921765597511</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.363228506996314</v>
+        <v>5.137703493610547</v>
       </c>
       <c r="E17">
-        <v>18.25589621267972</v>
+        <v>11.47203558931052</v>
       </c>
       <c r="F17">
-        <v>25.98190937381387</v>
+        <v>21.55430174561845</v>
       </c>
       <c r="G17">
-        <v>3.635483099200191</v>
+        <v>2.072716046699454</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.14865878305282</v>
+        <v>16.22089081654477</v>
       </c>
       <c r="L17">
-        <v>8.489212991767955</v>
+        <v>8.018865829559777</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.06339160907891</v>
+        <v>16.61496184761135</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.52933497726494</v>
+        <v>15.66748418638188</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.352715178344789</v>
+        <v>5.108953278043155</v>
       </c>
       <c r="E18">
-        <v>18.27222599680876</v>
+        <v>11.50873783863207</v>
       </c>
       <c r="F18">
-        <v>25.97483688971976</v>
+        <v>21.42046866151603</v>
       </c>
       <c r="G18">
-        <v>3.635929032149596</v>
+        <v>2.07401141174683</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.07367556794317</v>
+        <v>16.0662262564075</v>
       </c>
       <c r="L18">
-        <v>8.475025737706892</v>
+        <v>7.92891084994372</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.07202376730125</v>
+        <v>16.56610668072327</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.5179903251545</v>
+        <v>15.61248487954766</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.349144637153873</v>
+        <v>5.099178353035875</v>
       </c>
       <c r="E19">
-        <v>18.27780323324999</v>
+        <v>11.52128406718467</v>
       </c>
       <c r="F19">
-        <v>25.97256368552538</v>
+        <v>21.37537969756088</v>
       </c>
       <c r="G19">
-        <v>3.636081074377713</v>
+        <v>2.074451342083026</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.04814369579103</v>
+        <v>16.01353675803753</v>
       </c>
       <c r="L19">
-        <v>8.470239815194208</v>
+        <v>7.898250296854663</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.07503897548288</v>
+        <v>16.54985707790095</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.56919499574627</v>
+        <v>15.85903663136232</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.365169076654539</v>
+        <v>5.143005113324184</v>
       </c>
       <c r="E20">
-        <v>18.25289685212343</v>
+        <v>11.46529993628257</v>
       </c>
       <c r="F20">
-        <v>25.9832759768803</v>
+        <v>21.57917745189099</v>
       </c>
       <c r="G20">
-        <v>3.635401068757151</v>
+        <v>2.072476935243083</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.16246782285627</v>
+        <v>16.24936219436702</v>
       </c>
       <c r="L20">
-        <v>8.4918470318626</v>
+        <v>8.035417947308959</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.061837949085</v>
+        <v>16.6241431346553</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.74377578221727</v>
+        <v>16.67040780739545</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.418232263375359</v>
+        <v>5.287365011021924</v>
       </c>
       <c r="E21">
-        <v>18.17256915562367</v>
+        <v>11.2857365927131</v>
       </c>
       <c r="F21">
-        <v>26.02769556476503</v>
+        <v>22.27924804671366</v>
       </c>
       <c r="G21">
-        <v>3.633189668729798</v>
+        <v>2.065932895731857</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.53637435759756</v>
+        <v>17.01911270801484</v>
       </c>
       <c r="L21">
-        <v>8.565622555886614</v>
+        <v>8.482179118390908</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.02392983472748</v>
+        <v>16.89441537445812</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.85961103072511</v>
+        <v>17.18763570919107</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.452312453420963</v>
+        <v>5.379482615152828</v>
       </c>
       <c r="E22">
-        <v>18.1225677475933</v>
+        <v>11.17502551896682</v>
       </c>
       <c r="F22">
-        <v>26.06298188895318</v>
+        <v>22.74789622358371</v>
       </c>
       <c r="G22">
-        <v>3.631798803077711</v>
+        <v>2.061718359494934</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.77291695718627</v>
+        <v>17.50522487672643</v>
       </c>
       <c r="L22">
-        <v>8.614659269181166</v>
+        <v>8.763715638682607</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.00396962744428</v>
+        <v>17.08689009727976</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.79763879060515</v>
+        <v>16.91279604017629</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.434179402861633</v>
+        <v>5.330526246515762</v>
       </c>
       <c r="E23">
-        <v>18.14902609489137</v>
+        <v>11.2334870154037</v>
       </c>
       <c r="F23">
-        <v>26.04357839201204</v>
+        <v>22.49677251628349</v>
       </c>
       <c r="G23">
-        <v>3.632536170801711</v>
+        <v>2.063962327579372</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.64739914804217</v>
+        <v>17.24733614902719</v>
       </c>
       <c r="L23">
-        <v>8.588416166997261</v>
+        <v>8.614405443039669</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.0141815502957</v>
+        <v>16.9826874886968</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.5663731278452</v>
+        <v>15.84556007905663</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.364291959624675</v>
+        <v>5.140609035106042</v>
       </c>
       <c r="E24">
-        <v>18.25425196555951</v>
+        <v>11.46834288382998</v>
       </c>
       <c r="F24">
-        <v>25.98265594637</v>
+        <v>21.56792729390867</v>
       </c>
       <c r="G24">
-        <v>3.635438134953037</v>
+        <v>2.072585011771928</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.15622749172597</v>
+        <v>16.23649636960818</v>
       </c>
       <c r="L24">
-        <v>8.490655887873677</v>
+        <v>8.027938543725364</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.06253866841863</v>
+        <v>16.61998701039034</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.32537919972787</v>
+        <v>14.64104919340704</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.286467826032693</v>
+        <v>4.926683976250602</v>
       </c>
       <c r="E25">
-        <v>18.37849502074108</v>
+        <v>11.74844315319645</v>
       </c>
       <c r="F25">
-        <v>25.94394868693312</v>
+        <v>20.61585422419125</v>
       </c>
       <c r="G25">
-        <v>3.638803543653114</v>
+        <v>2.082182121076005</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.59430730127924</v>
+        <v>15.0742912867712</v>
       </c>
       <c r="L25">
-        <v>8.389099304551898</v>
+        <v>7.350130035399592</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.13529611861646</v>
+        <v>16.29392827252803</v>
       </c>
     </row>
   </sheetData>
